--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.96761821818603</v>
+        <v>4.674406333333334</v>
       </c>
       <c r="H2">
-        <v>2.96761821818603</v>
+        <v>14.023219</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.468555001982183</v>
+        <v>0.502378</v>
       </c>
       <c r="N2">
-        <v>0.468555001982183</v>
+        <v>1.507134</v>
       </c>
       <c r="O2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="P2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="Q2">
-        <v>1.390492360104518</v>
+        <v>2.348318904927333</v>
       </c>
       <c r="R2">
-        <v>1.390492360104518</v>
+        <v>21.134870144346</v>
       </c>
       <c r="S2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
       <c r="T2">
-        <v>0.01879598950819274</v>
+        <v>0.0189742916423209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.96761821818603</v>
+        <v>4.674406333333334</v>
       </c>
       <c r="H3">
-        <v>2.96761821818603</v>
+        <v>14.023219</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.599794932628456</v>
+        <v>0.6023626666666666</v>
       </c>
       <c r="N3">
-        <v>0.599794932628456</v>
+        <v>1.807088</v>
       </c>
       <c r="O3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="P3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="Q3">
-        <v>1.779962369243868</v>
+        <v>2.815687864030222</v>
       </c>
       <c r="R3">
-        <v>1.779962369243868</v>
+        <v>25.341190776272</v>
       </c>
       <c r="S3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
       <c r="T3">
-        <v>0.02406065288612652</v>
+        <v>0.02275060793223323</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.96761821818603</v>
+        <v>4.674406333333334</v>
       </c>
       <c r="H4">
-        <v>2.96761821818603</v>
+        <v>14.023219</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.1168456619624</v>
+        <v>5.474800666666667</v>
       </c>
       <c r="N4">
-        <v>5.1168456619624</v>
+        <v>16.424402</v>
       </c>
       <c r="O4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="P4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="Q4">
-        <v>15.18484440608577</v>
+        <v>25.59144291000423</v>
       </c>
       <c r="R4">
-        <v>15.18484440608577</v>
+        <v>230.322986190038</v>
       </c>
       <c r="S4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
       <c r="T4">
-        <v>0.2052612328764424</v>
+        <v>0.2067774952981744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.96761821818603</v>
+        <v>4.674406333333334</v>
       </c>
       <c r="H5">
-        <v>2.96761821818603</v>
+        <v>14.023219</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.94522995442952</v>
+        <v>5.012936333333333</v>
       </c>
       <c r="N5">
-        <v>4.94522995442952</v>
+        <v>15.038809</v>
       </c>
       <c r="O5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="P5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="Q5">
-        <v>14.67555450588431</v>
+        <v>23.43250134513011</v>
       </c>
       <c r="R5">
-        <v>14.67555450588431</v>
+        <v>210.892512106171</v>
       </c>
       <c r="S5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
       <c r="T5">
-        <v>0.1983769033429125</v>
+        <v>0.1893333624741797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.96761821818603</v>
+        <v>4.674406333333334</v>
       </c>
       <c r="H6">
-        <v>2.96761821818603</v>
+        <v>14.023219</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.11517734602774</v>
+        <v>7.423250333333333</v>
       </c>
       <c r="N6">
-        <v>7.11517734602774</v>
+        <v>22.269751</v>
       </c>
       <c r="O6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="P6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="Q6">
-        <v>21.11512991769645</v>
+        <v>34.69928837205211</v>
       </c>
       <c r="R6">
-        <v>21.11512991769645</v>
+        <v>312.293595348469</v>
       </c>
       <c r="S6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
       <c r="T6">
-        <v>0.2854239057935688</v>
+        <v>0.2803684014001858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.96761821818603</v>
+        <v>4.674406333333334</v>
       </c>
       <c r="H7">
-        <v>2.96761821818603</v>
+        <v>14.023219</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.68285334508192</v>
+        <v>7.461044333333334</v>
       </c>
       <c r="N7">
-        <v>6.68285334508192</v>
+        <v>22.383133</v>
       </c>
       <c r="O7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="P7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="Q7">
-        <v>19.83215733633056</v>
+        <v>34.87595288501412</v>
       </c>
       <c r="R7">
-        <v>19.83215733633056</v>
+        <v>313.883575965127</v>
       </c>
       <c r="S7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
       <c r="T7">
-        <v>0.2680813155927571</v>
+        <v>0.281795841252906</v>
       </c>
     </row>
   </sheetData>
